--- a/game_data_final/Pro Recco vs Jug Dubrovnik.xlsx
+++ b/game_data_final/Pro Recco vs Jug Dubrovnik.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
   <si>
     <t>Number of Passes</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Kickout Position</t>
+  </si>
+  <si>
+    <t>End 3-3</t>
   </si>
   <si>
     <t>5m</t>
@@ -302,10 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -313,6 +313,10 @@
     </font>
     <font>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -334,12 +338,18 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -358,10 +368,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -373,22 +383,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -486,14 +496,14 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
-        <v>43527.0</v>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1"/>
     </row>
@@ -502,7 +512,7 @@
         <v>7.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4">
         <v>2.0</v>
@@ -517,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4">
         <v>0.0</v>
@@ -526,10 +536,10 @@
         <v>0.0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="4">
         <v>6.0</v>
@@ -538,13 +548,13 @@
         <v>0.0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="4">
         <v>0.0</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="4">
         <v>0.0</v>
@@ -571,7 +581,7 @@
         <v>0.0</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="1"/>
     </row>
@@ -580,7 +590,7 @@
         <v>10.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4">
         <v>2.0</v>
@@ -595,7 +605,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4">
         <v>0.0</v>
@@ -604,10 +614,10 @@
         <v>0.0</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="4">
         <v>1.0</v>
@@ -616,13 +626,13 @@
         <v>1.0</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="4">
         <v>0.0</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="4">
         <v>0.0</v>
@@ -649,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="1"/>
     </row>
@@ -658,7 +668,7 @@
         <v>8.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5">
         <v>6.0</v>
@@ -673,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4">
         <v>0.0</v>
@@ -682,10 +692,10 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="5">
         <v>5.0</v>
@@ -694,13 +704,13 @@
         <v>1.0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="4">
         <v>0.0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="4">
         <v>0.0</v>
@@ -727,7 +737,7 @@
         <v>0.0</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="1"/>
     </row>
@@ -736,7 +746,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4">
         <v>2.0</v>
@@ -751,7 +761,7 @@
         <v>1.0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="4">
         <v>0.0</v>
@@ -760,10 +770,10 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="4">
         <v>6.0</v>
@@ -772,13 +782,13 @@
         <v>0.0</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" s="4">
         <v>0.0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="4">
         <v>0.0</v>
@@ -805,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z5" s="1"/>
     </row>
@@ -814,7 +824,7 @@
         <v>7.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4">
         <v>3.0</v>
@@ -829,7 +839,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4">
         <v>1.0</v>
@@ -838,10 +848,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" s="4">
         <v>1.0</v>
@@ -850,13 +860,13 @@
         <v>1.0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6" s="4">
         <v>1.0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="4">
         <v>0.0</v>
@@ -883,7 +893,7 @@
         <v>0.0</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z6" s="1"/>
     </row>
@@ -892,7 +902,7 @@
         <v>3.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4">
         <v>1.0</v>
@@ -907,7 +917,7 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4">
         <v>1.0</v>
@@ -916,10 +926,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" s="4">
         <v>5.0</v>
@@ -928,13 +938,13 @@
         <v>1.0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O7" s="4">
         <v>0.0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="4">
         <v>0.0</v>
@@ -961,7 +971,7 @@
         <v>0.0</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z7" s="1"/>
     </row>
@@ -970,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4">
         <v>6.0</v>
@@ -985,7 +995,7 @@
         <v>1.0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4">
         <v>0.0</v>
@@ -994,25 +1004,25 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="M8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O8" s="4">
         <v>0.0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="4">
         <v>0.0</v>
@@ -1039,7 +1049,7 @@
         <v>0.0</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z8" s="1"/>
     </row>
@@ -1048,7 +1058,7 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4">
         <v>1.0</v>
@@ -1063,7 +1073,7 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="4">
         <v>0.0</v>
@@ -1072,10 +1082,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" s="4">
         <v>4.0</v>
@@ -1084,13 +1094,13 @@
         <v>1.0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O9" s="4">
         <v>0.0</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="4">
         <v>0.0</v>
@@ -1117,7 +1127,7 @@
         <v>0.0</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="1"/>
     </row>
@@ -1126,7 +1136,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4">
         <v>3.0</v>
@@ -1141,7 +1151,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="4">
         <v>0.0</v>
@@ -1150,10 +1160,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" s="4">
         <v>6.0</v>
@@ -1162,13 +1172,13 @@
         <v>0.0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O10" s="4">
         <v>0.0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="4">
         <v>0.0</v>
@@ -1195,7 +1205,7 @@
         <v>0.0</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="1"/>
     </row>
@@ -1204,7 +1214,7 @@
         <v>7.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4">
         <v>5.0</v>
@@ -1219,7 +1229,7 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="4">
         <v>1.0</v>
@@ -1228,10 +1238,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="4">
         <v>1.0</v>
@@ -1240,13 +1250,13 @@
         <v>1.0</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O11" s="4">
         <v>0.0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="4">
         <v>0.0</v>
@@ -1273,7 +1283,7 @@
         <v>0.0</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z11" s="1"/>
     </row>
@@ -1282,7 +1292,7 @@
         <v>3.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5">
         <v>2.0</v>
@@ -1297,7 +1307,7 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="5">
         <v>0.0</v>
@@ -1306,10 +1316,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12" s="5">
         <v>1.0</v>
@@ -1318,13 +1328,13 @@
         <v>1.0</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O12" s="5">
         <v>0.0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="5">
         <v>0.0</v>
@@ -1351,7 +1361,7 @@
         <v>0.0</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z12" s="1"/>
     </row>
@@ -1360,7 +1370,7 @@
         <v>9.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4">
         <v>4.0</v>
@@ -1375,7 +1385,7 @@
         <v>1.0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4">
         <v>0.0</v>
@@ -1384,10 +1394,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L13" s="4">
         <v>6.0</v>
@@ -1396,13 +1406,13 @@
         <v>1.0</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O13" s="4">
         <v>0.0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="4">
         <v>0.0</v>
@@ -1429,7 +1439,7 @@
         <v>0.0</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z13" s="1"/>
     </row>
@@ -1438,7 +1448,7 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="10">
         <v>4.0</v>
@@ -1453,7 +1463,7 @@
         <v>0.0</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="10">
         <v>1.0</v>
@@ -1462,10 +1472,10 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" s="10">
         <v>1.0</v>
@@ -1474,13 +1484,13 @@
         <v>1.0</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O14" s="10">
         <v>1.0</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="10">
         <v>0.0</v>
@@ -1507,7 +1517,7 @@
         <v>0.0</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -1515,7 +1525,7 @@
         <v>4.0</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="10">
         <v>1.0</v>
@@ -1530,7 +1540,7 @@
         <v>1.0</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="10">
         <v>0.0</v>
@@ -1539,10 +1549,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="10">
         <v>6.0</v>
@@ -1551,13 +1561,13 @@
         <v>0.0</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O15" s="10">
         <v>0.0</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="10">
         <v>0.0</v>
@@ -1584,7 +1594,7 @@
         <v>0.0</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -1592,7 +1602,7 @@
         <v>8.0</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="10">
         <v>6.0</v>
@@ -1607,7 +1617,7 @@
         <v>1.0</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="10">
         <v>0.0</v>
@@ -1616,10 +1626,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L16" s="10">
         <v>3.0</v>
@@ -1628,13 +1638,13 @@
         <v>1.0</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O16" s="10">
         <v>0.0</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="10">
         <v>0.0</v>
@@ -1661,7 +1671,7 @@
         <v>0.0</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1669,7 +1679,7 @@
         <v>7.0</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="10">
         <v>5.0</v>
@@ -1684,7 +1694,7 @@
         <v>0.0</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="10">
         <v>0.0</v>
@@ -1693,10 +1703,10 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L17" s="10">
         <v>6.0</v>
@@ -1705,13 +1715,13 @@
         <v>0.0</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O17" s="10">
         <v>0.0</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="10">
         <v>0.0</v>
@@ -1738,7 +1748,7 @@
         <v>0.0</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -1746,7 +1756,7 @@
         <v>5.0</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="10">
         <v>5.0</v>
@@ -1761,7 +1771,7 @@
         <v>0.0</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" s="10">
         <v>1.0</v>
@@ -1770,10 +1780,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L18" s="10">
         <v>6.0</v>
@@ -1782,13 +1792,13 @@
         <v>0.0</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O18" s="10">
         <v>0.0</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="10">
         <v>0.0</v>
@@ -1815,7 +1825,7 @@
         <v>0.0</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -1823,7 +1833,7 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="10">
         <v>6.0</v>
@@ -1838,7 +1848,7 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" s="10">
         <v>0.0</v>
@@ -1847,10 +1857,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L19" s="10">
         <v>4.0</v>
@@ -1859,13 +1869,13 @@
         <v>1.0</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O19" s="10">
         <v>0.0</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="10">
         <v>0.0</v>
@@ -1892,7 +1902,7 @@
         <v>0.0</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1910,7 @@
         <v>4.0</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" s="10">
         <v>6.0</v>
@@ -1915,7 +1925,7 @@
         <v>0.0</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H20" s="10">
         <v>0.0</v>
@@ -1924,10 +1934,10 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L20" s="10">
         <v>4.0</v>
@@ -1936,13 +1946,13 @@
         <v>1.0</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O20" s="10">
         <v>0.0</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="10">
         <v>0.0</v>
@@ -1969,7 +1979,7 @@
         <v>0.0</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -1977,7 +1987,7 @@
         <v>6.0</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" s="10">
         <v>1.0</v>
@@ -1992,7 +2002,7 @@
         <v>0.0</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H21" s="10">
         <v>0.0</v>
@@ -2001,10 +2011,10 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L21" s="10">
         <v>6.0</v>
@@ -2013,13 +2023,13 @@
         <v>0.0</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O21" s="10">
         <v>0.0</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="10">
         <v>0.0</v>
@@ -2046,7 +2056,7 @@
         <v>0.0</v>
       </c>
       <c r="Y21" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -2054,7 +2064,7 @@
         <v>7.0</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>6.0</v>
@@ -2069,7 +2079,7 @@
         <v>0.0</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22" s="10">
         <v>0.0</v>
@@ -2078,10 +2088,10 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L22" s="10">
         <v>5.0</v>
@@ -2090,13 +2100,13 @@
         <v>1.0</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O22" s="10">
         <v>1.0</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="10">
         <v>0.0</v>
@@ -2123,7 +2133,7 @@
         <v>0.0</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -2131,7 +2141,7 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="10">
         <v>1.0</v>
@@ -2146,7 +2156,7 @@
         <v>1.0</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23" s="10">
         <v>0.0</v>
@@ -2155,10 +2165,10 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L23" s="10">
         <v>6.0</v>
@@ -2167,13 +2177,13 @@
         <v>0.0</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O23" s="10">
         <v>0.0</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="10">
         <v>0.0</v>
@@ -2200,7 +2210,7 @@
         <v>0.0</v>
       </c>
       <c r="Y23" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/game_data_final/Pro Recco vs Jug Dubrovnik.xlsx
+++ b/game_data_final/Pro Recco vs Jug Dubrovnik.xlsx
@@ -572,7 +572,7 @@
         <v>0.0</v>
       </c>
       <c r="V2" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W2" s="4">
         <v>0.0</v>
@@ -650,7 +650,7 @@
         <v>1.0</v>
       </c>
       <c r="V3" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W3" s="4">
         <v>0.0</v>
@@ -728,7 +728,7 @@
         <v>2.0</v>
       </c>
       <c r="V4" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W4" s="4">
         <v>0.0</v>
@@ -806,7 +806,7 @@
         <v>0.0</v>
       </c>
       <c r="V5" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W5" s="4">
         <v>0.0</v>
@@ -884,7 +884,7 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W6" s="4">
         <v>0.0</v>
@@ -962,7 +962,7 @@
         <v>1.0</v>
       </c>
       <c r="V7" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W7" s="4">
         <v>0.0</v>
@@ -1040,7 +1040,7 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" s="4">
         <v>0.0</v>
@@ -1118,7 +1118,7 @@
         <v>1.0</v>
       </c>
       <c r="V9" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W9" s="4">
         <v>0.0</v>
@@ -1196,7 +1196,7 @@
         <v>1.0</v>
       </c>
       <c r="V10" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" s="4">
         <v>1.0</v>
@@ -1274,7 +1274,7 @@
         <v>1.0</v>
       </c>
       <c r="V11" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W11" s="4">
         <v>0.0</v>
@@ -1352,7 +1352,7 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W12" s="5">
         <v>0.0</v>
@@ -1430,7 +1430,7 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W13" s="4">
         <v>0.0</v>
@@ -1508,7 +1508,7 @@
         <v>1.0</v>
       </c>
       <c r="V14" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W14" s="10">
         <v>0.0</v>
@@ -1585,7 +1585,7 @@
         <v>1.0</v>
       </c>
       <c r="V15" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W15" s="10">
         <v>0.0</v>
@@ -1662,7 +1662,7 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W16" s="10">
         <v>0.0</v>
@@ -1739,7 +1739,7 @@
         <v>2.0</v>
       </c>
       <c r="V17" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W17" s="10">
         <v>0.0</v>
@@ -1816,7 +1816,7 @@
         <v>1.0</v>
       </c>
       <c r="V18" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W18" s="10">
         <v>0.0</v>
@@ -1893,7 +1893,7 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W19" s="10">
         <v>0.0</v>
@@ -1970,7 +1970,7 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W20" s="10">
         <v>0.0</v>
@@ -2047,7 +2047,7 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W21" s="10">
         <v>0.0</v>
@@ -2124,7 +2124,7 @@
         <v>2.0</v>
       </c>
       <c r="V22" s="10">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W22" s="10">
         <v>0.0</v>
@@ -2201,7 +2201,7 @@
         <v>0.0</v>
       </c>
       <c r="V23" s="10">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W23" s="10">
         <v>0.0</v>
